--- a/modflow/out/balanceCopiapo19932022.xlsx
+++ b/modflow/out/balanceCopiapo19932022.xlsx
@@ -1,68 +1,71 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\FlowCopiapo\modflow\out\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FB36265-4523-4F96-BBBC-FF300D19153C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>STORAGE_IN</t>
-  </si>
-  <si>
-    <t>CONSTANT_HEAD_IN</t>
-  </si>
-  <si>
-    <t>WELLS_IN</t>
-  </si>
-  <si>
-    <t>DRAINS_IN</t>
-  </si>
-  <si>
-    <t>RECHARGE_IN</t>
-  </si>
-  <si>
-    <t>TOTAL_IN</t>
-  </si>
-  <si>
-    <t>STORAGE_OUT</t>
-  </si>
-  <si>
-    <t>CONSTANT_HEAD_OUT</t>
-  </si>
-  <si>
-    <t>WELLS_OUT</t>
-  </si>
-  <si>
-    <t>DRAINS_OUT</t>
-  </si>
-  <si>
-    <t>RECHARGE_OUT</t>
-  </si>
-  <si>
-    <t>TOTAL_OUT</t>
-  </si>
-  <si>
-    <t>IN-OUT</t>
-  </si>
-  <si>
-    <t>PERCENT_DISCREPANCY</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>Porcentaje de error (%)</t>
+  </si>
+  <si>
+    <t>Componente del balance hídrico</t>
+  </si>
+  <si>
+    <t>Valor (m3/s)</t>
+  </si>
+  <si>
+    <t>Entradas desde almacenamiento</t>
+  </si>
+  <si>
+    <t>Flujo subterráneo lateral</t>
+  </si>
+  <si>
+    <t>Recarga</t>
+  </si>
+  <si>
+    <t>Total Entradas</t>
+  </si>
+  <si>
+    <t>Aportes al almacenamiento</t>
+  </si>
+  <si>
+    <t>Bombeo</t>
+  </si>
+  <si>
+    <t>Vertientes</t>
+  </si>
+  <si>
+    <t>Total Salidas</t>
+  </si>
+  <si>
+    <t>Entradas - salidas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="170" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,9 +117,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -125,11 +133,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -171,7 +187,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -203,9 +219,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -237,6 +271,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -412,127 +464,104 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:B11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1.6732063302447899</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.34781679660784282</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4.0098887094825209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2">
+        <v>6.0309118416012328</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2">
+        <v>-0.32465238171546318</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-4.4005378224793503</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2">
+        <v>-1.305705379396175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2">
+        <v>6.0308955758348448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1.6265763095772109E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>1.67320633024479</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.3478167966078428</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>4.009888709482521</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>6.030911841601233</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>-0.3246523817154632</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>-4.40053782247935</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>-1.305705379396175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>6.030895575834845</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>1.626576309577211E-05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
+      <c r="B11" s="2">
         <v>0</v>
       </c>
     </row>
